--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="H2">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="I2">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="J2">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>104.0097425</v>
+        <v>91.633747</v>
       </c>
       <c r="N2">
-        <v>208.019485</v>
+        <v>183.267494</v>
       </c>
       <c r="O2">
-        <v>0.4223541729035338</v>
+        <v>0.5404641053829864</v>
       </c>
       <c r="P2">
-        <v>0.3348767214268841</v>
+        <v>0.4607844134336482</v>
       </c>
       <c r="Q2">
-        <v>2185.009055853366</v>
+        <v>2255.661218557465</v>
       </c>
       <c r="R2">
-        <v>8740.036223413465</v>
+        <v>9022.644874229858</v>
       </c>
       <c r="S2">
-        <v>0.03367961407194552</v>
+        <v>0.09706484433744993</v>
       </c>
       <c r="T2">
-        <v>0.02424699724073509</v>
+        <v>0.07254539338465048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="H3">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="I3">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="J3">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>58.20636966666667</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N3">
         <v>174.619109</v>
       </c>
       <c r="O3">
-        <v>0.2363596190835905</v>
+        <v>0.3433064186438474</v>
       </c>
       <c r="P3">
-        <v>0.2811076795060987</v>
+        <v>0.4390400171831415</v>
       </c>
       <c r="Q3">
-        <v>1222.783960166187</v>
+        <v>1432.811109755444</v>
       </c>
       <c r="R3">
-        <v>7336.70376099712</v>
+        <v>8596.866658532663</v>
       </c>
       <c r="S3">
-        <v>0.01884792731702349</v>
+        <v>0.06165623906160976</v>
       </c>
       <c r="T3">
-        <v>0.02035380990440689</v>
+        <v>0.06912197945415328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="H4">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="I4">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="J4">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03002933333333333</v>
+        <v>0.013631</v>
       </c>
       <c r="N4">
-        <v>0.090088</v>
+        <v>0.040893</v>
       </c>
       <c r="O4">
-        <v>0.0001219406368864389</v>
+        <v>8.03968675478859E-05</v>
       </c>
       <c r="P4">
-        <v>0.0001450266742074914</v>
+        <v>0.0001028161438085806</v>
       </c>
       <c r="Q4">
-        <v>0.6308482618786666</v>
+        <v>0.3355414252584999</v>
       </c>
       <c r="R4">
-        <v>3.785089571272</v>
+        <v>2.013248551551</v>
       </c>
       <c r="S4">
-        <v>9.723861757512532E-06</v>
+        <v>1.443890418629045E-05</v>
       </c>
       <c r="T4">
-        <v>1.050076384634518E-05</v>
+        <v>1.618726107357867E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="H5">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="I5">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="J5">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.5936885</v>
+        <v>19.276104</v>
       </c>
       <c r="N5">
-        <v>27.187377</v>
+        <v>38.552208</v>
       </c>
       <c r="O5">
-        <v>0.05520012765271271</v>
+        <v>0.113692200141389</v>
       </c>
       <c r="P5">
-        <v>0.04376714841860452</v>
+        <v>0.09693075494256499</v>
       </c>
       <c r="Q5">
-        <v>285.5725988837032</v>
+        <v>474.501607335564</v>
       </c>
       <c r="R5">
-        <v>1142.290395534813</v>
+        <v>1898.006429342256</v>
       </c>
       <c r="S5">
-        <v>0.004401800941813158</v>
+        <v>0.02041859135360356</v>
       </c>
       <c r="T5">
-        <v>0.00316899282344548</v>
+        <v>0.01526067189638589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="H6">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="I6">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="J6">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.30838766666666</v>
+        <v>0.3145633333333334</v>
       </c>
       <c r="N6">
-        <v>210.925163</v>
+        <v>0.94369</v>
       </c>
       <c r="O6">
-        <v>0.285502494356584</v>
+        <v>0.001855322914343884</v>
       </c>
       <c r="P6">
-        <v>0.3395543790134425</v>
+        <v>0.002372693780126657</v>
       </c>
       <c r="Q6">
-        <v>1477.019941224408</v>
+        <v>7.743307842471667</v>
       </c>
       <c r="R6">
-        <v>8862.119647346446</v>
+        <v>46.45984705483</v>
       </c>
       <c r="S6">
-        <v>0.02276670728834914</v>
+        <v>0.0003332073824752509</v>
       </c>
       <c r="T6">
-        <v>0.02458568650558191</v>
+        <v>0.0003735543100903689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.0077345</v>
+        <v>24.6160535</v>
       </c>
       <c r="H7">
-        <v>42.015469</v>
+        <v>49.232107</v>
       </c>
       <c r="I7">
-        <v>0.07974258627637139</v>
+        <v>0.1795953577132886</v>
       </c>
       <c r="J7">
-        <v>0.07240574124537677</v>
+        <v>0.1574389047668967</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1136856666666667</v>
+        <v>0.1019916666666667</v>
       </c>
       <c r="N7">
-        <v>0.341057</v>
+        <v>0.305975</v>
       </c>
       <c r="O7">
-        <v>0.0004616453666923254</v>
+        <v>0.0006015560498854178</v>
       </c>
       <c r="P7">
-        <v>0.0005490449607626363</v>
+        <v>0.0007693045167102056</v>
       </c>
       <c r="Q7">
-        <v>2.388278301788833</v>
+        <v>2.510632323220833</v>
       </c>
       <c r="R7">
-        <v>14.329669810733</v>
+        <v>15.063793939325</v>
       </c>
       <c r="S7">
-        <v>3.681279548254986E-05</v>
+        <v>0.0001080366739637645</v>
       </c>
       <c r="T7">
-        <v>3.975400736105748E-05</v>
+        <v>0.0001211184605430815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>71.38371599999999</v>
       </c>
       <c r="I8">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="J8">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>104.0097425</v>
+        <v>91.633747</v>
       </c>
       <c r="N8">
-        <v>208.019485</v>
+        <v>183.267494</v>
       </c>
       <c r="O8">
-        <v>0.4223541729035338</v>
+        <v>0.5404641053829864</v>
       </c>
       <c r="P8">
-        <v>0.3348767214268841</v>
+        <v>0.4607844134336482</v>
       </c>
       <c r="Q8">
-        <v>2474.86730661771</v>
+        <v>2180.385790621284</v>
       </c>
       <c r="R8">
-        <v>14849.20383970626</v>
+        <v>13082.3147437277</v>
       </c>
       <c r="S8">
-        <v>0.03814747382527711</v>
+        <v>0.09382561779272393</v>
       </c>
       <c r="T8">
-        <v>0.04119532177268846</v>
+        <v>0.1051866368115866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>71.38371599999999</v>
       </c>
       <c r="I9">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="J9">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.20636966666667</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N9">
         <v>174.619109</v>
       </c>
       <c r="O9">
-        <v>0.2363596190835905</v>
+        <v>0.3433064186438474</v>
       </c>
       <c r="P9">
-        <v>0.2811076795060987</v>
+        <v>0.4390400171831415</v>
       </c>
       <c r="Q9">
         <v>1384.995653892116</v>
@@ -1013,10 +1013,10 @@
         <v>12464.96088502904</v>
       </c>
       <c r="S9">
-        <v>0.0213482497884616</v>
+        <v>0.05959866067079703</v>
       </c>
       <c r="T9">
-        <v>0.0345808489186249</v>
+        <v>0.1002228840360847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>71.38371599999999</v>
       </c>
       <c r="I10">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="J10">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03002933333333333</v>
+        <v>0.013631</v>
       </c>
       <c r="N10">
-        <v>0.090088</v>
+        <v>0.040893</v>
       </c>
       <c r="O10">
-        <v>0.0001219406368864389</v>
+        <v>8.03968675478859E-05</v>
       </c>
       <c r="P10">
-        <v>0.0001450266742074914</v>
+        <v>0.0001028161438085806</v>
       </c>
       <c r="Q10">
-        <v>0.714535134112</v>
+        <v>0.3243438109319999</v>
       </c>
       <c r="R10">
-        <v>6.430816207007999</v>
+        <v>2.919094298387999</v>
       </c>
       <c r="S10">
-        <v>1.101380678183926E-05</v>
+        <v>1.395705226517278E-05</v>
       </c>
       <c r="T10">
-        <v>1.784065635898463E-05</v>
+        <v>2.347059505891541E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>71.38371599999999</v>
       </c>
       <c r="I11">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="J11">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.5936885</v>
+        <v>19.276104</v>
       </c>
       <c r="N11">
-        <v>27.187377</v>
+        <v>38.552208</v>
       </c>
       <c r="O11">
-        <v>0.05520012765271271</v>
+        <v>0.113692200141389</v>
       </c>
       <c r="P11">
-        <v>0.04376714841860452</v>
+        <v>0.09693075494256499</v>
       </c>
       <c r="Q11">
-        <v>323.455999758822</v>
+        <v>458.666644507488</v>
       </c>
       <c r="R11">
-        <v>1940.735998552932</v>
+        <v>2751.999867044928</v>
       </c>
       <c r="S11">
-        <v>0.004985733680118672</v>
+        <v>0.01973718663318217</v>
       </c>
       <c r="T11">
-        <v>0.00538407612955291</v>
+        <v>0.02212709418714888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>71.38371599999999</v>
       </c>
       <c r="I12">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="J12">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>70.30838766666666</v>
+        <v>0.3145633333333334</v>
       </c>
       <c r="N12">
-        <v>210.925163</v>
+        <v>0.94369</v>
       </c>
       <c r="O12">
-        <v>0.285502494356584</v>
+        <v>0.001855322914343884</v>
       </c>
       <c r="P12">
-        <v>0.3395543790134425</v>
+        <v>0.002372693780126657</v>
       </c>
       <c r="Q12">
-        <v>1672.957992538412</v>
+        <v>7.484899883560001</v>
       </c>
       <c r="R12">
-        <v>15056.62193284571</v>
+        <v>67.36409895204</v>
       </c>
       <c r="S12">
-        <v>0.02578688605263687</v>
+        <v>0.0003220876593089504</v>
       </c>
       <c r="T12">
-        <v>0.04177075027246492</v>
+        <v>0.0005416322072518006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>71.38371599999999</v>
       </c>
       <c r="I13">
-        <v>0.09032105344911566</v>
+        <v>0.1736019411062216</v>
       </c>
       <c r="J13">
-        <v>0.1230163792728212</v>
+        <v>0.2282773326201781</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1136856666666667</v>
+        <v>0.1019916666666667</v>
       </c>
       <c r="N13">
-        <v>0.341057</v>
+        <v>0.305975</v>
       </c>
       <c r="O13">
-        <v>0.0004616453666923254</v>
+        <v>0.0006015560498854178</v>
       </c>
       <c r="P13">
-        <v>0.0005490449607626363</v>
+        <v>0.0007693045167102056</v>
       </c>
       <c r="Q13">
-        <v>2.705101780868</v>
+        <v>2.4268480559</v>
       </c>
       <c r="R13">
-        <v>24.345916027812</v>
+        <v>21.8416325031</v>
       </c>
       <c r="S13">
-        <v>4.169629583955412E-05</v>
+        <v>0.0001044312979442996</v>
       </c>
       <c r="T13">
-        <v>6.754152313100769E-05</v>
+        <v>0.0001756147830472609</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="H14">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="I14">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="J14">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>104.0097425</v>
+        <v>91.633747</v>
       </c>
       <c r="N14">
-        <v>208.019485</v>
+        <v>183.267494</v>
       </c>
       <c r="O14">
-        <v>0.4223541729035338</v>
+        <v>0.5404641053829864</v>
       </c>
       <c r="P14">
-        <v>0.3348767214268841</v>
+        <v>0.4607844134336482</v>
       </c>
       <c r="Q14">
-        <v>754.6298588405083</v>
+        <v>462.1981763014134</v>
       </c>
       <c r="R14">
-        <v>4527.77915304305</v>
+        <v>2773.18905780848</v>
       </c>
       <c r="S14">
-        <v>0.01163182474911475</v>
+        <v>0.01988915430502491</v>
       </c>
       <c r="T14">
-        <v>0.01256116631832626</v>
+        <v>0.02229746309791414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="H15">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="I15">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="J15">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>58.20636966666667</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N15">
         <v>174.619109</v>
       </c>
       <c r="O15">
-        <v>0.2363596190835905</v>
+        <v>0.3433064186438474</v>
       </c>
       <c r="P15">
-        <v>0.2811076795060987</v>
+        <v>0.4390400171831415</v>
       </c>
       <c r="Q15">
-        <v>422.3091363309077</v>
+        <v>293.5913764288089</v>
       </c>
       <c r="R15">
-        <v>3800.78222697817</v>
+        <v>2642.32238785928</v>
       </c>
       <c r="S15">
-        <v>0.006509450701167302</v>
+        <v>0.01263372399074387</v>
       </c>
       <c r="T15">
-        <v>0.01054429910980186</v>
+        <v>0.02124524679274627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="H16">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="I16">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="J16">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03002933333333333</v>
+        <v>0.013631</v>
       </c>
       <c r="N16">
-        <v>0.090088</v>
+        <v>0.040893</v>
       </c>
       <c r="O16">
-        <v>0.0001219406368864389</v>
+        <v>8.03968675478859E-05</v>
       </c>
       <c r="P16">
-        <v>0.0001450266742074914</v>
+        <v>0.0001028161438085806</v>
       </c>
       <c r="Q16">
-        <v>0.2178741243822222</v>
+        <v>0.06875440050666666</v>
       </c>
       <c r="R16">
-        <v>1.96086711944</v>
+        <v>0.61878960456</v>
       </c>
       <c r="S16">
-        <v>3.358300234865818E-06</v>
+        <v>2.958615916162356E-06</v>
       </c>
       <c r="T16">
-        <v>5.439924780533787E-06</v>
+        <v>4.975296701896317E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="H17">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="I17">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="J17">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.5936885</v>
+        <v>19.276104</v>
       </c>
       <c r="N17">
-        <v>27.187377</v>
+        <v>38.552208</v>
       </c>
       <c r="O17">
-        <v>0.05520012765271271</v>
+        <v>0.113692200141389</v>
       </c>
       <c r="P17">
-        <v>0.04376714841860452</v>
+        <v>0.09693075494256499</v>
       </c>
       <c r="Q17">
-        <v>98.62733035683499</v>
+        <v>97.22815454656001</v>
       </c>
       <c r="R17">
-        <v>591.7639821410099</v>
+        <v>583.36892727936</v>
       </c>
       <c r="S17">
-        <v>0.001520236455984463</v>
+        <v>0.004183888789964115</v>
       </c>
       <c r="T17">
-        <v>0.001641697960438841</v>
+        <v>0.004690501389314083</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="H18">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="I18">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="J18">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>70.30838766666666</v>
+        <v>0.3145633333333334</v>
       </c>
       <c r="N18">
-        <v>210.925163</v>
+        <v>0.94369</v>
       </c>
       <c r="O18">
-        <v>0.285502494356584</v>
+        <v>0.001855322914343884</v>
       </c>
       <c r="P18">
-        <v>0.3395543790134425</v>
+        <v>0.002372693780126657</v>
       </c>
       <c r="Q18">
-        <v>510.1138353476877</v>
+        <v>1.586649064977778</v>
       </c>
       <c r="R18">
-        <v>4591.024518129189</v>
+        <v>14.2798415848</v>
       </c>
       <c r="S18">
-        <v>0.007862867689836725</v>
+        <v>6.827614148933202E-05</v>
       </c>
       <c r="T18">
-        <v>0.01273662442325091</v>
+        <v>0.0001148151944003261</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.255376666666666</v>
+        <v>5.043973333333334</v>
       </c>
       <c r="H19">
-        <v>21.76613</v>
+        <v>15.13192</v>
       </c>
       <c r="I19">
-        <v>0.02754045181831665</v>
+        <v>0.03680013918950446</v>
       </c>
       <c r="J19">
-        <v>0.03750982231551985</v>
+        <v>0.04839022859249757</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1136856666666667</v>
+        <v>0.1019916666666667</v>
       </c>
       <c r="N19">
-        <v>0.341057</v>
+        <v>0.305975</v>
       </c>
       <c r="O19">
-        <v>0.0004616453666923254</v>
+        <v>0.0006015560498854178</v>
       </c>
       <c r="P19">
-        <v>0.0005490449607626363</v>
+        <v>0.0007693045167102056</v>
       </c>
       <c r="Q19">
-        <v>0.8248323332677777</v>
+        <v>0.5144432468888889</v>
       </c>
       <c r="R19">
-        <v>7.423490999409999</v>
+        <v>4.629989222</v>
       </c>
       <c r="S19">
-        <v>1.271392197853911E-05</v>
+        <v>2.213734636607187E-05</v>
       </c>
       <c r="T19">
-        <v>2.059457892143806E-05</v>
+        <v>3.722682142084771E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="H20">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="I20">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="J20">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>104.0097425</v>
+        <v>91.633747</v>
       </c>
       <c r="N20">
-        <v>208.019485</v>
+        <v>183.267494</v>
       </c>
       <c r="O20">
-        <v>0.4223541729035338</v>
+        <v>0.5404641053829864</v>
       </c>
       <c r="P20">
-        <v>0.3348767214268841</v>
+        <v>0.4607844134336482</v>
       </c>
       <c r="Q20">
-        <v>19662.75054034113</v>
+        <v>6768.963127875089</v>
       </c>
       <c r="R20">
-        <v>78651.00216136452</v>
+        <v>27075.85251150035</v>
       </c>
       <c r="S20">
-        <v>0.3030805973172449</v>
+        <v>0.2912797129851418</v>
       </c>
       <c r="T20">
-        <v>0.2181971085290133</v>
+        <v>0.217699842901024</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="H21">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="I21">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="J21">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.20636966666667</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N21">
         <v>174.619109</v>
       </c>
       <c r="O21">
-        <v>0.2363596190835905</v>
+        <v>0.3433064186438474</v>
       </c>
       <c r="P21">
-        <v>0.2811076795060987</v>
+        <v>0.4390400171831415</v>
       </c>
       <c r="Q21">
-        <v>11003.75117854508</v>
+        <v>4299.690703263871</v>
       </c>
       <c r="R21">
-        <v>66022.50707127049</v>
+        <v>25798.14421958322</v>
       </c>
       <c r="S21">
-        <v>0.169611238930254</v>
+        <v>0.1850228240739051</v>
       </c>
       <c r="T21">
-        <v>0.1831625757448279</v>
+        <v>0.2074265968672916</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="H22">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="I22">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="J22">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.03002933333333333</v>
+        <v>0.013631</v>
       </c>
       <c r="N22">
-        <v>0.090088</v>
+        <v>0.040893</v>
       </c>
       <c r="O22">
-        <v>0.0001219406368864389</v>
+        <v>8.03968675478859E-05</v>
       </c>
       <c r="P22">
-        <v>0.0001450266742074914</v>
+        <v>0.0001028161438085806</v>
       </c>
       <c r="Q22">
-        <v>5.676961369518667</v>
+        <v>1.0069187326375</v>
       </c>
       <c r="R22">
-        <v>34.061768217112</v>
+        <v>6.041512395825</v>
       </c>
       <c r="S22">
-        <v>8.750438242557249E-05</v>
+        <v>4.332938352614204E-05</v>
       </c>
       <c r="T22">
-        <v>9.449567242781006E-05</v>
+        <v>4.857598847153755E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="H23">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="I23">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="J23">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.5936885</v>
+        <v>19.276104</v>
       </c>
       <c r="N23">
-        <v>27.187377</v>
+        <v>38.552208</v>
       </c>
       <c r="O23">
-        <v>0.05520012765271271</v>
+        <v>0.113692200141389</v>
       </c>
       <c r="P23">
-        <v>0.04376714841860452</v>
+        <v>0.09693075494256499</v>
       </c>
       <c r="Q23">
-        <v>2569.848741800356</v>
+        <v>1423.9212244053</v>
       </c>
       <c r="R23">
-        <v>10279.39496720142</v>
+        <v>5695.6848976212</v>
       </c>
       <c r="S23">
-        <v>0.03961151264579434</v>
+        <v>0.06127369254682716</v>
       </c>
       <c r="T23">
-        <v>0.02851755473718339</v>
+        <v>0.04579540780476653</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="H24">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="I24">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="J24">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.30838766666666</v>
+        <v>0.3145633333333334</v>
       </c>
       <c r="N24">
-        <v>210.925163</v>
+        <v>0.94369</v>
       </c>
       <c r="O24">
-        <v>0.285502494356584</v>
+        <v>0.001855322914343884</v>
       </c>
       <c r="P24">
-        <v>0.3395543790134425</v>
+        <v>0.002372693780126657</v>
       </c>
       <c r="Q24">
-        <v>13291.60378974367</v>
+        <v>23.23671872454167</v>
       </c>
       <c r="R24">
-        <v>79749.62273846204</v>
+        <v>139.42031234725</v>
       </c>
       <c r="S24">
-        <v>0.2048760781272557</v>
+        <v>0.0009999145560312278</v>
       </c>
       <c r="T24">
-        <v>0.2212449505997518</v>
+        <v>0.001120990745621629</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>189.0471995</v>
+        <v>73.86976250000001</v>
       </c>
       <c r="H25">
-        <v>378.094399</v>
+        <v>147.739525</v>
       </c>
       <c r="I25">
-        <v>0.717598207290517</v>
+        <v>0.5389436783757059</v>
       </c>
       <c r="J25">
-        <v>0.6515744289399755</v>
+        <v>0.4724548759772064</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1136856666666667</v>
+        <v>0.1019916666666667</v>
       </c>
       <c r="N25">
-        <v>0.341057</v>
+        <v>0.305975</v>
       </c>
       <c r="O25">
-        <v>0.0004616453666923254</v>
+        <v>0.0006015560498854178</v>
       </c>
       <c r="P25">
-        <v>0.0005490449607626363</v>
+        <v>0.0007693045167102056</v>
       </c>
       <c r="Q25">
-        <v>21.49195690662383</v>
+        <v>7.534100193645834</v>
       </c>
       <c r="R25">
-        <v>128.951741439743</v>
+        <v>45.204601161875</v>
       </c>
       <c r="S25">
-        <v>0.0003312758875423861</v>
+        <v>0.0003242048302744067</v>
       </c>
       <c r="T25">
-        <v>0.000357743656771286</v>
+        <v>0.0003634616700310249</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="H26">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="I26">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="J26">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>104.0097425</v>
+        <v>91.633747</v>
       </c>
       <c r="N26">
-        <v>208.019485</v>
+        <v>183.267494</v>
       </c>
       <c r="O26">
-        <v>0.4223541729035338</v>
+        <v>0.5404641053829864</v>
       </c>
       <c r="P26">
-        <v>0.3348767214268841</v>
+        <v>0.4607844134336482</v>
       </c>
       <c r="Q26">
-        <v>1611.105364138733</v>
+        <v>309.8976045746696</v>
       </c>
       <c r="R26">
-        <v>9666.632184832401</v>
+        <v>1859.385627448018</v>
       </c>
       <c r="S26">
-        <v>0.0248334929084501</v>
+        <v>0.01333540803961054</v>
       </c>
       <c r="T26">
-        <v>0.02681760097114235</v>
+        <v>0.01495014640133394</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="H27">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="I27">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="J27">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>58.20636966666667</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N27">
         <v>174.619109</v>
       </c>
       <c r="O27">
-        <v>0.2363596190835905</v>
+        <v>0.3433064186438474</v>
       </c>
       <c r="P27">
-        <v>0.2811076795060987</v>
+        <v>0.4390400171831415</v>
       </c>
       <c r="Q27">
-        <v>901.6135617969512</v>
+        <v>196.8490334754914</v>
       </c>
       <c r="R27">
-        <v>8114.522056172561</v>
+        <v>1771.641301279423</v>
       </c>
       <c r="S27">
-        <v>0.01389742377589091</v>
+        <v>0.008470740479590009</v>
       </c>
       <c r="T27">
-        <v>0.02251166801561119</v>
+        <v>0.01424464964867414</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="H28">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="I28">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="J28">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.03002933333333333</v>
+        <v>0.013631</v>
       </c>
       <c r="N28">
-        <v>0.090088</v>
+        <v>0.040893</v>
       </c>
       <c r="O28">
-        <v>0.0001219406368864389</v>
+        <v>8.03968675478859E-05</v>
       </c>
       <c r="P28">
-        <v>0.0001450266742074914</v>
+        <v>0.0001028161438085806</v>
       </c>
       <c r="Q28">
-        <v>0.465152771768889</v>
+        <v>0.04609889245233333</v>
       </c>
       <c r="R28">
-        <v>4.186374945920001</v>
+        <v>0.414890032071</v>
       </c>
       <c r="S28">
-        <v>7.169840232791821E-06</v>
+        <v>1.983711819488635E-06</v>
       </c>
       <c r="T28">
-        <v>1.161402758154253E-05</v>
+        <v>3.335868917320105E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="H29">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="I29">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="J29">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.5936885</v>
+        <v>19.276104</v>
       </c>
       <c r="N29">
-        <v>27.187377</v>
+        <v>38.552208</v>
       </c>
       <c r="O29">
-        <v>0.05520012765271271</v>
+        <v>0.113692200141389</v>
       </c>
       <c r="P29">
-        <v>0.04376714841860452</v>
+        <v>0.09693075494256499</v>
       </c>
       <c r="Q29">
-        <v>210.56550986828</v>
+        <v>65.190158109896</v>
       </c>
       <c r="R29">
-        <v>1263.39305920968</v>
+        <v>391.140948659376</v>
       </c>
       <c r="S29">
-        <v>0.003245645637132787</v>
+        <v>0.002805240652812865</v>
       </c>
       <c r="T29">
-        <v>0.003504961219560817</v>
+        <v>0.00314491752527962</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="H30">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="I30">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="J30">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>70.30838766666666</v>
+        <v>0.3145633333333334</v>
       </c>
       <c r="N30">
-        <v>210.925163</v>
+        <v>0.94369</v>
       </c>
       <c r="O30">
-        <v>0.285502494356584</v>
+        <v>0.001855322914343884</v>
       </c>
       <c r="P30">
-        <v>0.3395543790134425</v>
+        <v>0.002372693780126657</v>
       </c>
       <c r="Q30">
-        <v>1089.073175175991</v>
+        <v>1.063826665158889</v>
       </c>
       <c r="R30">
-        <v>9801.658576583921</v>
+        <v>9.574439986430001</v>
       </c>
       <c r="S30">
-        <v>0.01678691634607908</v>
+        <v>4.577822627181254E-05</v>
       </c>
       <c r="T30">
-        <v>0.0271921971930041</v>
+        <v>7.698202965264984E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.48994666666667</v>
+        <v>3.381915666666667</v>
       </c>
       <c r="H31">
-        <v>46.46984</v>
+        <v>10.145747</v>
       </c>
       <c r="I31">
-        <v>0.05879779223614324</v>
+        <v>0.02467399390041034</v>
       </c>
       <c r="J31">
-        <v>0.08008201005096623</v>
+        <v>0.03244499155240355</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1136856666666667</v>
+        <v>0.1019916666666667</v>
       </c>
       <c r="N31">
-        <v>0.341057</v>
+        <v>0.305975</v>
       </c>
       <c r="O31">
-        <v>0.0004616453666923254</v>
+        <v>0.0006015560498854178</v>
       </c>
       <c r="P31">
-        <v>0.0005490449607626363</v>
+        <v>0.0007693045167102056</v>
       </c>
       <c r="Q31">
-        <v>1.760984913431111</v>
+        <v>0.3449272153694444</v>
       </c>
       <c r="R31">
-        <v>15.84886422088</v>
+        <v>3.104344938325</v>
       </c>
       <c r="S31">
-        <v>2.714372835755351E-05</v>
+        <v>1.484279030562774E-05</v>
       </c>
       <c r="T31">
-        <v>4.39686240662258E-05</v>
+        <v>2.496007854588852E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="H32">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="I32">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="J32">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>104.0097425</v>
+        <v>91.633747</v>
       </c>
       <c r="N32">
-        <v>208.019485</v>
+        <v>183.267494</v>
       </c>
       <c r="O32">
-        <v>0.4223541729035338</v>
+        <v>0.5404641053829864</v>
       </c>
       <c r="P32">
-        <v>0.3348767214268841</v>
+        <v>0.4607844134336482</v>
       </c>
       <c r="Q32">
-        <v>712.4177822061966</v>
+        <v>582.5796289452413</v>
       </c>
       <c r="R32">
-        <v>4274.50669323718</v>
+        <v>3495.477773671448</v>
       </c>
       <c r="S32">
-        <v>0.01098117003150135</v>
+        <v>0.02506936792303529</v>
       </c>
       <c r="T32">
-        <v>0.01185852659497868</v>
+        <v>0.02810493083713906</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="H33">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="I33">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="J33">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>58.20636966666667</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N33">
         <v>174.619109</v>
       </c>
       <c r="O33">
-        <v>0.2363596190835905</v>
+        <v>0.3433064186438474</v>
       </c>
       <c r="P33">
-        <v>0.2811076795060987</v>
+        <v>0.4390400171831415</v>
       </c>
       <c r="Q33">
-        <v>398.6862364186769</v>
+        <v>370.0584812127809</v>
       </c>
       <c r="R33">
-        <v>3588.176127768092</v>
+        <v>3330.526330915027</v>
       </c>
       <c r="S33">
-        <v>0.006145328570793156</v>
+        <v>0.01592423036720159</v>
       </c>
       <c r="T33">
-        <v>0.009954477812825949</v>
+        <v>0.02677866038419147</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="H34">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="I34">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="J34">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.03002933333333333</v>
+        <v>0.013631</v>
       </c>
       <c r="N34">
-        <v>0.090088</v>
+        <v>0.040893</v>
       </c>
       <c r="O34">
-        <v>0.0001219406368864389</v>
+        <v>8.03968675478859E-05</v>
       </c>
       <c r="P34">
-        <v>0.0001450266742074914</v>
+        <v>0.0001028161438085806</v>
       </c>
       <c r="Q34">
-        <v>0.2056867995271111</v>
+        <v>0.08666177235066666</v>
       </c>
       <c r="R34">
-        <v>1.851181195744</v>
+        <v>0.7799559511559999</v>
       </c>
       <c r="S34">
-        <v>3.170445453857022E-06</v>
+        <v>3.729199834629637E-06</v>
       </c>
       <c r="T34">
-        <v>5.135629212275182E-06</v>
+        <v>6.271133585332529E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="H35">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="I35">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="J35">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>13.5936885</v>
+        <v>19.276104</v>
       </c>
       <c r="N35">
-        <v>27.187377</v>
+        <v>38.552208</v>
       </c>
       <c r="O35">
-        <v>0.05520012765271271</v>
+        <v>0.113692200141389</v>
       </c>
       <c r="P35">
-        <v>0.04376714841860452</v>
+        <v>0.09693075494256499</v>
       </c>
       <c r="Q35">
-        <v>93.11036812894599</v>
+        <v>122.551634997856</v>
       </c>
       <c r="R35">
-        <v>558.662208773676</v>
+        <v>735.309809987136</v>
       </c>
       <c r="S35">
-        <v>0.001435198291869288</v>
+        <v>0.00527360016499917</v>
       </c>
       <c r="T35">
-        <v>0.00154986554842308</v>
+        <v>0.005912162139670002</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="H36">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="I36">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="J36">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>70.30838766666666</v>
+        <v>0.3145633333333334</v>
       </c>
       <c r="N36">
-        <v>210.925163</v>
+        <v>0.94369</v>
       </c>
       <c r="O36">
-        <v>0.285502494356584</v>
+        <v>0.001855322914343884</v>
       </c>
       <c r="P36">
-        <v>0.3395543790134425</v>
+        <v>0.002372693780126657</v>
       </c>
       <c r="Q36">
-        <v>481.5793637022048</v>
+        <v>1.999898465497778</v>
       </c>
       <c r="R36">
-        <v>4334.214273319843</v>
+        <v>17.99908618948</v>
       </c>
       <c r="S36">
-        <v>0.00742303885242653</v>
+        <v>8.605894876731086E-05</v>
       </c>
       <c r="T36">
-        <v>0.01202417001938887</v>
+        <v>0.0001447192931098832</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.849529333333333</v>
+        <v>6.357697333333333</v>
       </c>
       <c r="H37">
-        <v>20.548588</v>
+        <v>19.073092</v>
       </c>
       <c r="I37">
-        <v>0.02599990892953593</v>
+        <v>0.04638488971486923</v>
       </c>
       <c r="J37">
-        <v>0.03541161817534047</v>
+        <v>0.06099366649081785</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.1136856666666667</v>
+        <v>0.1019916666666667</v>
       </c>
       <c r="N37">
-        <v>0.341057</v>
+        <v>0.305975</v>
       </c>
       <c r="O37">
-        <v>0.0004616453666923254</v>
+        <v>0.0006015560498854178</v>
       </c>
       <c r="P37">
-        <v>0.0005490449607626363</v>
+        <v>0.0007693045167102056</v>
       </c>
       <c r="Q37">
-        <v>0.7786933086128889</v>
+        <v>0.6484321471888889</v>
       </c>
       <c r="R37">
-        <v>7.008239777516</v>
+        <v>5.835889324699999</v>
       </c>
       <c r="S37">
-        <v>1.200273749174268E-05</v>
+        <v>2.790311103124748E-05</v>
       </c>
       <c r="T37">
-        <v>1.944257051162127E-05</v>
+        <v>4.692270312210209E-05</v>
       </c>
     </row>
   </sheetData>
